--- a/contact/business plan pt.xlsx
+++ b/contact/business plan pt.xlsx
@@ -44,16 +44,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-816];[RED]\-#,##0.00\ [$€-816]"/>
-    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-816];[RED]\-#,##0.00\ [$€-816]"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -113,16 +115,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -146,61 +152,61 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.45"/>
+  <sheetFormatPr defaultRowHeight="26.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1734693877551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="23.6122448979592"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="26.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="2" t="n">
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="26.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>300000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="26.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="26.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="26.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="26.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <f aca="false">B3/(B6*B5)</f>
         <v>400</v>
       </c>
